--- a/tmp/reminders_within_30_days.xlsx
+++ b/tmp/reminders_within_30_days.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Title</t>
   </si>
@@ -31,73 +31,13 @@
     <t>Auto Renew</t>
   </si>
   <si>
-    <t>Testing Title</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>How does this remider works?</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Testing2</t>
-  </si>
-  <si>
-    <t>anything will suffice</t>
-  </si>
-  <si>
-    <t>Office No 2 - Chabra</t>
-  </si>
-  <si>
-    <t>Property Tax</t>
+    <t>Mh-43-a-0422</t>
+  </si>
+  <si>
+    <t>Vehicle Insurance</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Orchid Chs Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orchid Garage </t>
-  </si>
-  <si>
-    <t>Citizen Chs Ltd-naigaon</t>
-  </si>
-  <si>
-    <t>New Jyoti Chs Ltd - Nalasopara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office No 3 </t>
-  </si>
-  <si>
-    <t>Vaidya Villa Chs Ltd</t>
-  </si>
-  <si>
-    <t>Spring Time Chs Ltd</t>
-  </si>
-  <si>
-    <t>Office No 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anshul Plaza Chs Ltd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamnagar </t>
-  </si>
-  <si>
-    <t>Stellix</t>
-  </si>
-  <si>
-    <t>Mh-43-a-0422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passing Of Vehicle </t>
-  </si>
-  <si>
-    <t>Vehicle Insurance</t>
   </si>
 </sst>
 </file>
@@ -475,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -506,323 +446,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>45450</v>
+        <v>45478</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45450</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45453</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45457</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45478</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
